--- a/DataMetaAnal.xlsx
+++ b/DataMetaAnal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABB8241-C3CB-4096-83F0-F95F417BCB52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB0231-EE8E-41D0-95A9-BB830C141575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -754,22 +754,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA8A7-0F0A-4AC8-8943-F074F9B66243}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -852,8 +849,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:27">
+      <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -935,8 +932,8 @@
         <v>1.5753360000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:27">
+      <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1018,8 +1015,8 @@
         <v>1.647767</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:27">
+      <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1101,8 +1098,8 @@
         <v>1.1353329999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:27">
+      <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1184,8 +1181,8 @@
         <v>2.5590449999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:27">
+      <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1267,8 +1264,8 @@
         <v>2.1539069999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:27">
+      <c r="A7" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1350,8 +1347,8 @@
         <v>1.0302180000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:27">
+      <c r="A8" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1433,8 +1430,8 @@
         <v>2.0149400000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:27">
+      <c r="A9" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1516,8 +1513,8 @@
         <v>0.76383619999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:27">
+      <c r="A10" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1599,8 +1596,8 @@
         <v>2.3725930000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:27">
+      <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1682,8 +1679,8 @@
         <v>2.2077309999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:27">
+      <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1765,8 +1762,8 @@
         <v>0.98812619999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:27">
+      <c r="A13" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1848,8 +1845,8 @@
         <v>1.9132849999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:27">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1931,8 +1928,8 @@
         <v>0.96969479999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:27">
+      <c r="A15" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2014,8 +2011,8 @@
         <v>1.800705</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:27">
+      <c r="A16" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2097,8 +2094,8 @@
         <v>4.0503</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:27">
+      <c r="A17" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2180,8 +2177,8 @@
         <v>1.7470220000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:27">
+      <c r="A18" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2263,8 +2260,8 @@
         <v>3.553814</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:27">
+      <c r="A19" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2346,8 +2343,8 @@
         <v>1.1337140000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:27">
+      <c r="A20" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2429,8 +2426,8 @@
         <v>2.0588679999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:27">
+      <c r="A21" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2524,10 +2521,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A21"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
@@ -2538,7 +2535,7 @@
     <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>1.0218905210494995</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>84</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>1.4191792011260986</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -2738,7 +2735,7 @@
         <v>1.5898394584655762</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>1.4660924673080444</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>1.7235749959945679</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
         <v>88</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>1.3340981006622314</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>2.1529772281646729</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -2988,7 +2985,7 @@
         <v>2.0275118350982666</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>1.0922955274581909</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>0.93276506662368774</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>2.146965503692627</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>2.1866564750671387</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>1.6960263252258301</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>1.4273159503936768</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>1.1129205226898193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>98</v>
       </c>
@@ -3388,7 +3385,7 @@
         <v>1.9806505441665649</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
@@ -3438,7 +3435,7 @@
         <v>1.3631662130355835</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
         <v>100</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>2.2826716899871826</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>101</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>1.5316181182861328</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -3602,7 +3599,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
@@ -3612,7 +3609,7 @@
     <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>1.0218905210494995</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3762,7 +3759,7 @@
         <v>1.4191792011260986</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>1.5898394584655762</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>1.4660924673080444</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3909,7 @@
         <v>1.7235749959945679</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>1.3340981006622314</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>2.1529772281646729</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4059,7 @@
         <v>2.0275118350982666</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>1.0922955274581909</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>0.93276506662368774</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4209,7 @@
         <v>2.146965503692627</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>2.1866564750671387</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>1.6960263252258301</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>1.4273159503936768</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>1.1129205226898193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4459,7 @@
         <v>1.9806505441665649</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4512,7 +4509,7 @@
         <v>1.3631662130355835</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>2.2826716899871826</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>1.5316181182861328</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -4675,7 +4672,7 @@
       <selection activeCell="C3" sqref="C3:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8.7109375" style="2"/>
     <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
@@ -4683,7 +4680,7 @@
     <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4">
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
@@ -4715,7 +4712,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
@@ -4723,7 +4720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4">
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
@@ -4739,7 +4736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4">
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4">
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4755,7 +4752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4">
       <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4">
       <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4">
       <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4">
       <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4">
       <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
